--- a/数据整理/stocks/港股/02015-理想汽车-W.xlsx
+++ b/数据整理/stocks/港股/02015-理想汽车-W.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,2497 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8769</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>183001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华全球核心优选(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015205</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华全球新能源车量化优选股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015204</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华全球新能源车量化优选股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02015-理想汽车-W.xlsx
+++ b/数据整理/stocks/港股/02015-理想汽车-W.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3034,64 +3008,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02015-理想汽车-W.xlsx
+++ b/数据整理/stocks/港股/02015-理想汽车-W.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>30.06</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,6 +532,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6982</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银消费股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3002,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02015-理想汽车-W.xlsx
+++ b/数据整理/stocks/港股/02015-理想汽车-W.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>17.78</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>30.06</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.03</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6978</t>
+          <t>4.0753</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009909</t>
+          <t>011531</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合A</t>
+          <t>朱雀恒心一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.17</t>
+          <t>58.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8645</t>
+          <t>2.1678</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012852</t>
+          <t>009909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实远见先锋一年持有期混合A</t>
+          <t>嘉实动力先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7309</t>
+          <t>1.5597</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -702,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011643</t>
+          <t>012852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实时代先锋三年持有期混合A</t>
+          <t>嘉实远见先锋一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>18.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3411</t>
+          <t>1.4496</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.30</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0175</t>
+          <t>1.3138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0107</t>
+          <t>1.2459</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -816,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012390</t>
+          <t>011643</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧产业前瞻混合A</t>
+          <t>嘉实时代先锋三年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.91</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8827</t>
+          <t>1.1228</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -854,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513980</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城中证港股通科技ETF</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.24</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6982</t>
+          <t>1.0424</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -892,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012208</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏港股前沿经济混合（QDII）A</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>91.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5531</t>
+          <t>0.8445</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -930,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>513980</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合A</t>
+          <t>景顺长城中证港股通科技ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>62.37</t>
+          <t>98.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4657</t>
+          <t>0.7476</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -968,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012557</t>
+          <t>012208</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+          <t>华夏港股前沿经济混合（QDII）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4628</t>
+          <t>0.5148</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1006,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3258</t>
+          <t>0.3704</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1044,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2782</t>
+          <t>0.3478</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1082,32 +1099,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013960</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家新机遇成长一年持有期混合A</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2738</t>
+          <t>0.3356</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1120,36 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.2498</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1158,32 +1175,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009910</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实动力先锋混合C</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>91.82</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2077</t>
+          <t>0.2351</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1196,36 +1213,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012706</t>
+          <t>009910</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银核心精选混合A</t>
+          <t>嘉实动力先锋混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.2061</t>
+          <t>0.1740</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1234,32 +1251,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>513860</t>
+          <t>008166</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海富通中证港股通科技ETF</t>
+          <t>工银消费股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>95.72</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1795</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1272,36 +1289,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009877</t>
+          <t>513860</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中银内核驱动股票A</t>
+          <t>海富通中证港股通科技ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>96.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.1552</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1310,36 +1327,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>012853</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实远见先锋一年持有期混合C</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1257</t>
+          <t>0.1369</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1348,36 +1365,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014260</t>
+          <t>011924</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合C</t>
+          <t>嘉实港股互联网产业核心资产混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>62.37</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1082</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1386,36 +1403,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>159747</t>
+          <t>513020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方中证香港科技ETF（QDII）</t>
+          <t>国泰中证港股通科技ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1075</t>
+          <t>0.1146</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1424,36 +1441,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>513150</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通科技ETF</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>96.19</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1134</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1462,36 +1479,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>513020</t>
+          <t>012853</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰中证港股通科技ETF</t>
+          <t>嘉实远见先锋一年持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1500,36 +1517,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008166</t>
+          <t>011925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银消费股票A</t>
+          <t>嘉实港股互联网产业核心资产混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0920</t>
+          <t>0.0839</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1538,36 +1555,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013961</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家新机遇成长一年持有期混合C</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0742</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1586,22 +1603,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0707</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1614,36 +1631,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>017627</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>长城港股通价值精选多策略混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>80.94</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1652,36 +1669,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159751</t>
+          <t>513150</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鹏华中证港股通科技ETF</t>
+          <t>华泰柏瑞中证港股通科技ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>97.23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1690,36 +1707,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>012558</t>
+          <t>159751</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+          <t>鹏华中证港股通科技ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>95.29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1728,36 +1745,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005029</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中银产业精选混合</t>
+          <t>工银消费股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1776,26 +1793,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1804,36 +1821,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>012391</t>
+          <t>015797</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中欧产业前瞻混合C</t>
+          <t>万家新能源主题混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1842,36 +1859,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>159750</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商中证香港科技ETF（QDII）</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1880,27 +1897,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>77.26</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1918,36 +1935,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工银消费股票C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1966,26 +1983,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2004,26 +2021,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2032,36 +2049,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>517660</t>
+          <t>015796</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天弘中证沪港深物联网主题ETF</t>
+          <t>万家新能源主题混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2070,36 +2087,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>517660</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>天弘中证沪港深物联网主题ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>99.55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2108,36 +2125,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>513590</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鹏华中证港股通消费主题ETF</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>77.26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2146,36 +2163,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>012707</t>
+          <t>012289</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中银核心精选混合C</t>
+          <t>泰康沪港深成长混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2184,36 +2201,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003279</t>
+          <t>012288</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>融通沪港深智慧生活灵活配置混合</t>
+          <t>泰康沪港深成长混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>55.71</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2222,36 +2239,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>017494</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>东方红多元策略混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2260,36 +2275,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>012600</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中银内核驱动股票C</t>
+          <t>长城港股通价值精选多策略混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2298,6 +2311,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6982</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银消费股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4785,7 +6564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
